--- a/ResearchDiary/Questionnaires/TrackedData.xlsx
+++ b/ResearchDiary/Questionnaires/TrackedData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmaer\Documents\FH\Projects\MasterArbeit\mmt-masterarbeit-david-maerzendorfer\ResearchDiary\Questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C842F81-145F-4082-A4D1-0BAB07012E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4301C5E-23E2-4C21-9B7B-789487C74761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Demo" sheetId="1" r:id="rId1"/>
+    <sheet name="RealData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>Mode</t>
   </si>
@@ -172,6 +173,36 @@
   </si>
   <si>
     <t>eva</t>
+  </si>
+  <si>
+    <t>above are old ones</t>
+  </si>
+  <si>
+    <t>PoiNameOne</t>
+  </si>
+  <si>
+    <t>PoiNameTwo</t>
+  </si>
+  <si>
+    <t>PoiNameThree</t>
+  </si>
+  <si>
+    <t>PoiNameFour</t>
+  </si>
+  <si>
+    <t>PoiNameFive</t>
+  </si>
+  <si>
+    <t>PoiNameSix</t>
+  </si>
+  <si>
+    <t>Dodo</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>16.10.24</t>
   </si>
 </sst>
 </file>
@@ -207,13 +238,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -224,7 +263,112 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -518,11 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -827,24 +970,321 @@
         <v>47</v>
       </c>
     </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:XFD4 A6:XFD32 A5">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="A8:XFD32 A2:XFD4 A5 A6:XFD6 A7:C7">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$B2="Drone"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$B2="Hover"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:XFD5">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C5="Drone"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$C5="Hover"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBC2517-9B67-445D-A041-4C30D5ABB61A}">
+  <dimension ref="A1:AB45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:XFD62">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C2="Hover"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$C2="Drone"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ResearchDiary/Questionnaires/TrackedData.xlsx
+++ b/ResearchDiary/Questionnaires/TrackedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmaer\Documents\FH\Projects\MasterArbeit\mmt-masterarbeit-david-maerzendorfer\ResearchDiary\Questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F6D1F9-6536-4FEC-AEFE-FB1821487B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCDEB3E-E7BA-4779-9125-07F2750E084C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,44 +42,46 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DroneData!$A$1:$Z$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">HoverData!$A$1:$Z$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RealData!$A$1:$AC$25</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">EmbodimentData!$D$2:$D$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">EmbodimentData!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">BoxingGlovesData!$F$18:$F$22</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">BurgerData!$F$18:$F$23</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">ControllerData!$F$22:$F$25</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">DonutData!$F$22:$F$26</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">GiveWaySignData!$F$22:$F$27</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">GunData!$F$22:$F$26</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">HmdData!$F$18:$F$23</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">KickMeData!$F$22:$F$23</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">QuestionCrateData!$F$22:$F$27</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">SodaBottleData!$F$22:$F$25</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">EmbodimentData!$C$2:$C$13</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">TaxiData!$F$22:$F$24</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">UserStudyAnalyse!$K$73</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">WaterPipeData!$F$22:$F$26</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">SodaBottleData!$F$22:$F$27</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">BananaData!$F$22:$F$27</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">BlueDoorData!$F$22:$F$27</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">DonutData!$F$22:$F$27</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">QuestionCrateData!$F$22:$F$27</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">WaterPipeData!$F$22:$F$27</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">GunData!$F$22:$F$27</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">DroneData!$B$17:$B$28</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">ControllerData!$F$22:$F$27</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">KickMeData!$F$22:$F$27</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">GiveWaySignData!$F$22:$F$27</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">TaxiData!$F$22:$F$27</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">BoxingGlovesData!$F$18:$F$22</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">BurgerData!$F$18:$F$23</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">BlueCarData!$F$22:$F$30</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">HmdData!$F$18:$F$23</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">HoverData!$B$17:$B$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">DroneData!$Y$16:$Y$27</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">DroneData!$Z$16:$Z$27</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">BananaData!$F$22:$F$24</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">BlueCarData!$F$22:$F$30</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">BlueDoorData!$F$22:$F$24</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">DroneData!$Y$16:$Y$27</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">DroneData!$Z$16:$Z$27</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">BurgerData!$F$18:$F$23</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">ControllerData!$F$22:$F$25</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">DonutData!$F$22:$F$26</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">GiveWaySignData!$F$22:$F$27</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">GunData!$F$22:$F$26</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">HmdData!$F$18:$F$23</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">KickMeData!$F$22:$F$23</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">QuestionCrateData!$F$22:$F$27</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">SodaBottleData!$F$22:$F$25</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">TaxiData!$F$22:$F$24</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">DroneData!$B$17:$B$28</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">UserStudyAnalyse!$K$73</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">WaterPipeData!$F$22:$F$26</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">EmbodimentData!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">EmbodimentData!$C$2:$C$13</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">EmbodimentData!$D$2:$D$13</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">SodaBottleData!$F$22:$F$27</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">BananaData!$F$22:$F$27</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">BlueDoorData!$F$22:$F$27</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">DonutData!$F$22:$F$27</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">QuestionCrateData!$F$22:$F$27</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">HoverData!$B$17:$B$28</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">WaterPipeData!$F$22:$F$27</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">GunData!$F$22:$F$27</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">ControllerData!$F$22:$F$27</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">KickMeData!$F$22:$F$27</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">GiveWaySignData!$F$22:$F$27</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">TaxiData!$F$22:$F$27</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">BoxingGlovesData!$F$18:$F$22</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">BurgerData!$F$18:$F$23</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">BlueCarData!$F$22:$F$30</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">HmdData!$F$18:$F$23</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">DroneData!$Y$16:$Y$27</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">DroneData!$Z$16:$Z$27</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">BananaData!$F$22:$F$24</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">BlueCarData!$F$22:$F$30</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">BlueDoorData!$F$22:$F$24</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">BoxingGlovesData!$F$18:$F$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="369">
   <si>
     <t>Mode</t>
   </si>
@@ -1202,6 +1204,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
 </sst>
 </file>
@@ -4260,122 +4271,122 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.18</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
         <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="7">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="8">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.16</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="9">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="10">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
-    <cx:data id="1">
+    <cx:data id="11">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="12">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="13">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
-    <cx:data id="2">
+    <cx:data id="14">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="5">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="6">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.15</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="7">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="8">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="9">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="10">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="11">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="12">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="13">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="14">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4729,7 +4740,7 @@
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Time in ms</cx:v>
+              <cx:v>Time in sec</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -4749,7 +4760,7 @@
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
-                <a:t>Time in ms</a:t>
+                <a:t>Time in sec</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
@@ -4787,7 +4798,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4822,7 +4833,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4857,7 +4868,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4892,7 +4903,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4927,7 +4938,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4962,7 +4973,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4997,7 +5008,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5032,7 +5043,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.36</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5067,7 +5078,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5102,7 +5113,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.36</cx:f>
+        <cx:f>_xlchart.v1.38</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5137,12 +5148,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5227,7 +5238,7 @@
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Time in ms</cx:v>
+              <cx:v>Time in sec</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -5247,7 +5258,7 @@
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
-                <a:t>Time in ms</a:t>
+                <a:t>Time in sec</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
@@ -5266,7 +5277,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5301,12 +5312,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5391,7 +5402,7 @@
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Time in ms</cx:v>
+              <cx:v>Time in sec</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -5411,7 +5422,7 @@
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
-                <a:t>Time in ms</a:t>
+                <a:t>Time in sec</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
@@ -5430,12 +5441,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5559,7 +5570,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5662,7 +5673,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5697,7 +5708,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5732,7 +5743,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5767,7 +5778,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -18113,8 +18124,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5394325" y="4572000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5397500" y="4610100"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18196,8 +18207,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5394325" y="4572000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5397500" y="4610100"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18279,8 +18290,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5394325" y="4572000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5397500" y="4610100"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18362,8 +18373,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5394325" y="4572000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5397500" y="4610100"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18445,8 +18456,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4473575" y="3238500"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4473575" y="3181350"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18528,8 +18539,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4473575" y="3238500"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4473575" y="3181350"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18611,8 +18622,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5394325" y="4572000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5397500" y="4610100"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18694,8 +18705,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5394325" y="3238500"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5397500" y="3181350"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18851,8 +18862,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8402637" y="9228137"/>
-              <a:ext cx="6621463" cy="4386263"/>
+              <a:off x="8412162" y="9069387"/>
+              <a:ext cx="6618288" cy="4313238"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18884,16 +18895,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2160587</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>325437</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>87312</xdr:rowOff>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>350837</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20637</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
+      <xdr:rowOff>77787</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -18929,8 +18940,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4649787" y="13898562"/>
-              <a:ext cx="4572000" cy="2778125"/>
+              <a:off x="6154737" y="13628687"/>
+              <a:ext cx="4572000" cy="2736850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19007,8 +19018,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11911012" y="16714787"/>
-              <a:ext cx="4572000" cy="2784475"/>
+              <a:off x="11914187" y="16432212"/>
+              <a:ext cx="4572000" cy="2730500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19085,8 +19096,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2820987" y="22109112"/>
-              <a:ext cx="7296150" cy="2797175"/>
+              <a:off x="2830512" y="21724937"/>
+              <a:ext cx="7296150" cy="2755900"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19163,8 +19174,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10974388" y="22048787"/>
-              <a:ext cx="2611438" cy="2797175"/>
+              <a:off x="10983913" y="21670962"/>
+              <a:ext cx="2605088" cy="2749550"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19246,8 +19257,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5394325" y="4572000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5397500" y="4610100"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19329,8 +19340,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5394325" y="4572000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5397500" y="4610100"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19412,8 +19423,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5394325" y="4572000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5397500" y="4610100"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19495,8 +19506,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5394325" y="4572000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5397500" y="4610100"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19578,8 +19589,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5394325" y="4572000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5397500" y="4610100"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19661,8 +19672,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5394325" y="4572000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5397500" y="4610100"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19744,8 +19755,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5394325" y="4572000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5397500" y="4610100"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -33954,6 +33965,12 @@
   </sheetData>
   <autoFilter ref="A1:AC25" xr:uid="{FBBC2517-9B67-445D-A041-4C30D5ABB61A}"/>
   <mergeCells count="18">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
@@ -33966,12 +33983,6 @@
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:XFD2 A3:B3 D3:XFD3 A4:XFD4 A5:B5 D5:XFD5 A6:XFD6 A7:B7 D7:XFD7 A8:XFD8 A9:B9 D9:XFD9 A10:XFD10 A11:B11 D11:XFD11 A12:XFD12 A13:B13 D13:XFD13 A14:XFD14 A15:B15 D15:XFD15 A16:XFD16 A17:B17 D17:XFD17 A18:XFD18 A19:B37 D19:XFD37 C20 C22 C24 C26 C28 C30 C32 C34 C36 A38:XFD62">
     <cfRule type="expression" dxfId="149" priority="1">
@@ -33988,10 +33999,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAEAB09-7706-4641-8ECC-B9218D15EF54}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34191,12 +34202,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>280</v>
       </c>
@@ -34204,7 +34215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>279</v>
       </c>
@@ -34213,6 +34224,15 @@
       </c>
       <c r="G22" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23">
+        <f>STDEV(C2:C13)</f>
+        <v>0.79296146109875898</v>
       </c>
     </row>
   </sheetData>
@@ -37326,8 +37346,8 @@
   </sheetPr>
   <dimension ref="B34:V161"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="V155" sqref="V155"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37427,12 +37447,17 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D80" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>296</v>
       </c>
@@ -37440,8 +37465,12 @@
         <f>AVERAGE(HoverData!B17:B28)</f>
         <v>406.41833333333335</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <f>C81/60</f>
+        <v>6.7736388888888888</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>299</v>
       </c>
@@ -37449,8 +37478,12 @@
         <f>STDEV(HoverData!B17:B28)</f>
         <v>170.73188544047821</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <f t="shared" ref="D82:D85" si="0">C82/60</f>
+        <v>2.8455314240079703</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>297</v>
       </c>
@@ -37458,8 +37491,12 @@
         <f>AVERAGE(DroneData!B17:B28)</f>
         <v>285.38</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <f t="shared" si="0"/>
+        <v>4.7563333333333331</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>298</v>
       </c>
@@ -37467,8 +37504,12 @@
         <f>STDEV(DroneData!B17:B28)</f>
         <v>141.70477652820708</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <f t="shared" si="0"/>
+        <v>2.361746275470118</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>189</v>
       </c>
@@ -37477,7 +37518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>190</v>
       </c>
@@ -37486,17 +37527,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>305</v>
       </c>
@@ -37506,6 +37547,14 @@
         <v>300</v>
       </c>
     </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>367</v>
+      </c>
+      <c r="D103" t="s">
+        <v>368</v>
+      </c>
+    </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>301</v>
@@ -37514,6 +37563,10 @@
         <f>AVERAGE(DroneData!Y16:Y27)</f>
         <v>123.56333333333332</v>
       </c>
+      <c r="D104">
+        <f>C104/60</f>
+        <v>2.0593888888888885</v>
+      </c>
       <c r="E104" t="s">
         <v>308</v>
       </c>
@@ -37529,6 +37582,10 @@
       <c r="C105">
         <f>AVERAGE(DroneData!Z16:Z27)</f>
         <v>109.58999999999999</v>
+      </c>
+      <c r="D105">
+        <f>C105/60</f>
+        <v>1.8264999999999998</v>
       </c>
       <c r="E105" t="s">
         <v>298</v>
